--- a/Peace IS my DREAM/school is everwher/de/Mhat/download/quadrat/quadrat.xlsx
+++ b/Peace IS my DREAM/school is everwher/de/Mhat/download/quadrat/quadrat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Math\web\download\quadrat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\englsihvoucabularygitbhub\webdesign4.github.io\Peace IS my DREAM\school is everwher\de\Mhat\download\quadrat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
